--- a/M3/M3-paging-sorting-jsp-servlet-client/M3-paging-sorting-jsp-servlet-client.xlsx
+++ b/M3/M3-paging-sorting-jsp-servlet-client/M3-paging-sorting-jsp-servlet-client.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
@@ -681,15 +681,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>98</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>580267</xdr:colOff>
+      <xdr:colOff>599317</xdr:colOff>
       <xdr:row>110</xdr:row>
-      <xdr:rowOff>142571</xdr:rowOff>
+      <xdr:rowOff>155271</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -706,8 +706,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="19507200"/>
-          <a:ext cx="6066667" cy="2428571"/>
+          <a:off x="660400" y="18923000"/>
+          <a:ext cx="6352417" cy="2352371"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1830,14 +1830,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C120"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A124" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1845,93 +1845,93 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" s="3"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" s="3"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B8" s="3"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="1:2" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.5">
       <c r="A32" s="2" t="s">
         <v>3</v>
       </c>
@@ -1939,17 +1939,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C34" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C46" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:2" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.5">
       <c r="A57" s="2" t="s">
         <v>7</v>
       </c>
@@ -1957,87 +1957,87 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B59" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B79" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="3:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:3" ht="17.5" x14ac:dyDescent="0.35">
       <c r="C81" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="3:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:3" ht="17.5" x14ac:dyDescent="0.35">
       <c r="C82" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="83" spans="3:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:3" ht="17.5" x14ac:dyDescent="0.35">
       <c r="C83" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="3:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:3" ht="17.5" x14ac:dyDescent="0.35">
       <c r="C84" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="3:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:3" ht="17.5" x14ac:dyDescent="0.35">
       <c r="C85" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="3:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:3" ht="17.5" x14ac:dyDescent="0.35">
       <c r="C86" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="3:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:3" ht="17.5" x14ac:dyDescent="0.35">
       <c r="C87" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="88" spans="3:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:3" ht="17.5" x14ac:dyDescent="0.35">
       <c r="C88" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="89" spans="3:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:3" ht="17.5" x14ac:dyDescent="0.35">
       <c r="C89" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="90" spans="3:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:3" ht="17.5" x14ac:dyDescent="0.35">
       <c r="C90" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="91" spans="3:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:3" ht="17.5" x14ac:dyDescent="0.35">
       <c r="C91" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="92" spans="3:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:3" ht="17.5" x14ac:dyDescent="0.35">
       <c r="C92" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="3:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:3" ht="17.5" x14ac:dyDescent="0.35">
       <c r="C93" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="94" spans="3:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:3" ht="17.5" x14ac:dyDescent="0.35">
       <c r="C94" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="97" spans="1:2" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.5">
       <c r="A97" s="2" t="s">
         <v>22</v>
       </c>
@@ -2045,22 +2045,22 @@
         <v>23</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B114" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B116" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B117" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="120" spans="1:2" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:2" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.5">
       <c r="A120" s="2" t="s">
         <v>27</v>
       </c>
